--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl5-Cxcr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl5-Cxcr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,13 +76,7 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Cxcl5</t>
@@ -452,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>46.81352999999999</v>
+      </c>
+      <c r="H2">
+        <v>140.44059</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>1.059779333333333</v>
-      </c>
-      <c r="H2">
-        <v>3.179338</v>
-      </c>
-      <c r="I2">
-        <v>0.02103086855774293</v>
-      </c>
-      <c r="J2">
-        <v>0.02138713987202581</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>0.02139966666666667</v>
+        <v>0.02264433333333333</v>
       </c>
       <c r="N2">
-        <v>0.06419900000000001</v>
+        <v>0.06793299999999999</v>
       </c>
       <c r="O2">
-        <v>0.1891772429786745</v>
+        <v>0.08454793804489194</v>
       </c>
       <c r="P2">
-        <v>0.1891772429786745</v>
+        <v>0.08454793804489193</v>
       </c>
       <c r="Q2">
-        <v>0.02267892447355556</v>
+        <v>1.06006117783</v>
       </c>
       <c r="R2">
-        <v>0.204110320262</v>
+        <v>9.540550600469999</v>
       </c>
       <c r="S2">
-        <v>0.003978561731200699</v>
+        <v>0.08454793804489194</v>
       </c>
       <c r="T2">
-        <v>0.004045960156189124</v>
+        <v>0.08454793804489193</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.059779333333333</v>
+        <v>46.81352999999999</v>
       </c>
       <c r="H3">
-        <v>3.179338</v>
+        <v>140.44059</v>
       </c>
       <c r="I3">
-        <v>0.02103086855774293</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.02138713987202581</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,276 +614,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.09172000000000001</v>
+        <v>0.245184</v>
       </c>
       <c r="N3">
-        <v>0.27516</v>
+        <v>0.735552</v>
       </c>
       <c r="O3">
-        <v>0.8108227570213256</v>
+        <v>0.915452061955108</v>
       </c>
       <c r="P3">
-        <v>0.8108227570213254</v>
+        <v>0.9154520619551081</v>
       </c>
       <c r="Q3">
-        <v>0.09720296045333335</v>
+        <v>11.47792853952</v>
       </c>
       <c r="R3">
-        <v>0.8748266440800001</v>
+        <v>103.30135685568</v>
       </c>
       <c r="S3">
-        <v>0.01705230682654223</v>
+        <v>0.915452061955108</v>
       </c>
       <c r="T3">
-        <v>0.01734117971583668</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>46.81352999999999</v>
-      </c>
-      <c r="H4">
-        <v>140.44059</v>
-      </c>
-      <c r="I4">
-        <v>0.9289945229044113</v>
-      </c>
-      <c r="J4">
-        <v>0.9447320612152054</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M4">
-        <v>0.02139966666666667</v>
-      </c>
-      <c r="N4">
-        <v>0.06419900000000001</v>
-      </c>
-      <c r="O4">
-        <v>0.1891772429786745</v>
-      </c>
-      <c r="P4">
-        <v>0.1891772429786745</v>
-      </c>
-      <c r="Q4">
-        <v>1.00179393749</v>
-      </c>
-      <c r="R4">
-        <v>9.01614543741</v>
-      </c>
-      <c r="S4">
-        <v>0.1757446225853456</v>
-      </c>
-      <c r="T4">
-        <v>0.1787218066942529</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>46.81352999999999</v>
-      </c>
-      <c r="H5">
-        <v>140.44059</v>
-      </c>
-      <c r="I5">
-        <v>0.9289945229044113</v>
-      </c>
-      <c r="J5">
-        <v>0.9447320612152054</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>0.09172000000000001</v>
-      </c>
-      <c r="N5">
-        <v>0.27516</v>
-      </c>
-      <c r="O5">
-        <v>0.8108227570213256</v>
-      </c>
-      <c r="P5">
-        <v>0.8108227570213254</v>
-      </c>
-      <c r="Q5">
-        <v>4.2937369716</v>
-      </c>
-      <c r="R5">
-        <v>38.6436327444</v>
-      </c>
-      <c r="S5">
-        <v>0.7532499003190658</v>
-      </c>
-      <c r="T5">
-        <v>0.7660102545209524</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
-      </c>
-      <c r="G6">
-        <v>2.518301</v>
-      </c>
-      <c r="H6">
-        <v>5.036601999999999</v>
-      </c>
-      <c r="I6">
-        <v>0.04997460853784583</v>
-      </c>
-      <c r="J6">
-        <v>0.03388079891276892</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.02139966666666667</v>
-      </c>
-      <c r="N6">
-        <v>0.06419900000000001</v>
-      </c>
-      <c r="O6">
-        <v>0.1891772429786745</v>
-      </c>
-      <c r="P6">
-        <v>0.1891772429786745</v>
-      </c>
-      <c r="Q6">
-        <v>0.05389080196633333</v>
-      </c>
-      <c r="R6">
-        <v>0.323344811798</v>
-      </c>
-      <c r="S6">
-        <v>0.009454058662128201</v>
-      </c>
-      <c r="T6">
-        <v>0.006409476128232497</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>2.518301</v>
-      </c>
-      <c r="H7">
-        <v>5.036601999999999</v>
-      </c>
-      <c r="I7">
-        <v>0.04997460853784583</v>
-      </c>
-      <c r="J7">
-        <v>0.03388079891276892</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.09172000000000001</v>
-      </c>
-      <c r="N7">
-        <v>0.27516</v>
-      </c>
-      <c r="O7">
-        <v>0.8108227570213256</v>
-      </c>
-      <c r="P7">
-        <v>0.8108227570213254</v>
-      </c>
-      <c r="Q7">
-        <v>0.23097856772</v>
-      </c>
-      <c r="R7">
-        <v>1.38587140632</v>
-      </c>
-      <c r="S7">
-        <v>0.04052054987571763</v>
-      </c>
-      <c r="T7">
-        <v>0.02747132278453642</v>
+        <v>0.9154520619551081</v>
       </c>
     </row>
   </sheetData>
